--- a/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
+++ b/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32076ACA-35FC-44F1-9E51-15E0C573640F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A3469-5A0C-4CB1-8760-75A45EF989EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4650,7 +4650,7 @@
   <dimension ref="A1:AK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
+++ b/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A3469-5A0C-4CB1-8760-75A45EF989EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB4F62-6204-41F3-BFFA-C01E508AC984}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,29 +138,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Quantativement, on peut effectuer le test de Buys-Ballot pour déterminer le type du modèle:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Correlation entre les deux series est assew significatif donc le modele suivie sera le modele multiplicatif. </t>
     </r>
   </si>
   <si>
@@ -402,6 +379,29 @@
   </si>
   <si>
     <t>le meilleur parce qu'il rend le MAPE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Correlation entre les deux series est assez significatif donc le modele suivie sera le modele multiplicatif. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4649,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,7 +4755,7 @@
         <v>0.89590087448293465</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -4810,7 +4810,7 @@
         <v>2.2792662927646994</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -4822,40 +4822,40 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Z9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>30</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>32</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>33</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>35</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>36</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" t="s">
         <v>37</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>2.6074254689998124</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -4884,7 +4884,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Z10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB10">
         <v>0.70120731286650562</v>
@@ -4933,7 +4933,7 @@
         <v>3.2381743431120107</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -4945,7 +4945,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Z11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB11">
         <v>0.68070086978444466</v>
@@ -4994,7 +4994,7 @@
         <v>3.1827021658315586</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -5002,7 +5002,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="Z12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB12">
         <v>0.83152155275882167</v>
@@ -5051,7 +5051,7 @@
         <v>2.8680425513560461</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>0</v>
@@ -5060,15 +5060,15 @@
         <v>5</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB13">
         <v>0.88740957103556006</v>
@@ -5115,7 +5115,7 @@
         <v>4.6383020833333326</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W14" s="8">
         <f>T22-W15*R22</f>
@@ -5126,7 +5126,7 @@
         <v>3.7479444444444443</v>
       </c>
       <c r="Z14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB14">
         <v>1.0116995623827809</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -5181,34 +5181,34 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
         <v>53</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>54</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>57</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="R15" s="8">
         <f>R14+1</f>
@@ -5226,7 +5226,7 @@
         <v>2.3480729166666672</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W15" s="8">
         <f>U22/R23</f>
@@ -5237,7 +5237,7 @@
         <v>4.0495019841269837</v>
       </c>
       <c r="Z15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB15">
         <v>0.84541141828889255</v>
@@ -5310,7 +5310,7 @@
         <v>0.69859375000000012</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W16" s="8">
         <f>W15/12</f>
@@ -5321,7 +5321,7 @@
         <v>4.3510595238095231</v>
       </c>
       <c r="Z16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA16">
         <v>0.65825340737001514</v>
@@ -5388,7 +5388,7 @@
         <v>4.6526170634920634</v>
       </c>
       <c r="Z17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA17">
         <v>0.64169416542771163</v>
@@ -5434,7 +5434,7 @@
         <v>2.7549999999999999</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -5463,7 +5463,7 @@
         <v>4.9541746031746028</v>
       </c>
       <c r="Z18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA18">
         <v>0.84685424465644255</v>
@@ -5509,7 +5509,7 @@
         <v>2.7210000000000001</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -5538,7 +5538,7 @@
         <v>5.2557321428571431</v>
       </c>
       <c r="Z19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA19">
         <v>1.2342791548588443</v>
@@ -5584,7 +5584,7 @@
         <v>2.9460000000000002</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -5613,7 +5613,7 @@
         <v>5.5572896825396825</v>
       </c>
       <c r="Z20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA20">
         <v>1.6273674799425926</v>
@@ -5684,7 +5684,7 @@
         <v>5.8588472222222219</v>
       </c>
       <c r="Z21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA21">
         <v>2.0398465651516915</v>
@@ -5941,7 +5941,7 @@
         <v>12.192425720546412</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -6083,10 +6083,10 @@
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB26" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="AB26" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>4.7301640365767419</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA27" s="9">
         <v>3.6082999999999998</v>
@@ -6225,7 +6225,7 @@
         <v>6.2509580569015819</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA28" s="9">
         <v>2.41E-2</v>
@@ -6296,7 +6296,7 @@
         <v>0.75019029355469757</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9">
@@ -6988,7 +6988,7 @@
         <v>0.13174451316157779</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
@@ -7061,7 +7061,7 @@
         <v>4.562591460387905</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>

--- a/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
+++ b/Décomposition saisonnière/Ventes Champagne Decomposition saisonniere.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB4F62-6204-41F3-BFFA-C01E508AC984}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C73C2B3-0735-4D2D-A2B4-A5AE20207945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="67">
   <si>
     <t>Année</t>
   </si>
@@ -453,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +508,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -536,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -553,6 +559,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4649,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,13 +4732,13 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K5" t="s">
+      <c r="K5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N5" t="s">
@@ -4739,14 +4746,14 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K6">
+      <c r="K6" s="14">
         <v>1962</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="14">
         <f>AVERAGE(D16:D27)</f>
         <v>3.4781666666666666</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="14">
         <f>_xlfn.STDEV.P(D16:D27)</f>
         <v>1.4890813629736823</v>
       </c>
@@ -4769,43 +4776,43 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K7">
+      <c r="K7" s="14">
         <f>K6+1</f>
         <v>1963</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="14">
         <f>AVERAGE(D28:D39)</f>
         <v>3.8641666666666663</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="14">
         <f>_xlfn.STDEV.P(D28:D39)</f>
         <v>1.8199576383958931</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K8">
+      <c r="K8" s="14">
         <f t="shared" ref="K8:K13" si="0">K7+1</f>
         <v>1964</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <f>AVERAGE(D40:D51)</f>
         <v>4.3376666666666663</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="14">
         <f>_xlfn.STDEV.P(D40:D51)</f>
         <v>2.0296393084048763</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K9">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="14">
         <f>AVERAGE(D52:D63)</f>
         <v>5.0159999999999991</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="14">
         <f>_xlfn.STDEV.P(D52:D63)</f>
         <v>2.2792662927646994</v>
       </c>
@@ -4859,15 +4866,15 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K10">
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>1966</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="14">
         <f>AVERAGE(D64:D75)</f>
         <v>5.3705833333333333</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="14">
         <f>_xlfn.STDEV.P(D64:D75)</f>
         <v>2.6074254689998124</v>
       </c>
@@ -4920,15 +4927,15 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K11">
+      <c r="K11" s="14">
         <f t="shared" si="0"/>
         <v>1967</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="14">
         <f>AVERAGE(D76:D87)</f>
         <v>5.7134166666666664</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="14">
         <f>_xlfn.STDEV.P(D76:D87)</f>
         <v>3.2381743431120107</v>
       </c>
@@ -4981,15 +4988,15 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K12">
+      <c r="K12" s="14">
         <f t="shared" si="0"/>
         <v>1968</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="14">
         <f>AVERAGE(D88:D99)</f>
         <v>5.0065833333333334</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="14">
         <f>_xlfn.STDEV.P(D88:D99)</f>
         <v>3.1827021658315586</v>
       </c>
@@ -5038,15 +5045,15 @@
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="K13">
+      <c r="K13" s="14">
         <f t="shared" si="0"/>
         <v>1969</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="14">
         <f>AVERAGE(D100:D111)</f>
         <v>5.6405833333333328</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="14">
         <f>_xlfn.STDEV.P(D100:D111)</f>
         <v>2.8680425513560461</v>
       </c>
